--- a/Collections/EURO/Ireland/#EURO#Ireland#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Ireland/#EURO#Ireland#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Ireland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Ireland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="152">
   <si>
     <t>-</t>
   </si>
@@ -474,9 +474,6 @@
     <t>Subtype_2</t>
   </si>
   <si>
-    <t>Copper plated Steel</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -495,9 +492,6 @@
     <t>Rev: new map of Europe</t>
   </si>
   <si>
-    <t>Brass</t>
-  </si>
-  <si>
     <t>20cents</t>
   </si>
   <si>
@@ -907,6 +901,12 @@
   </si>
   <si>
     <t>92.730</t>
+  </si>
+  <si>
+    <t>Obv: Without mint symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obv: Celtic harp </t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1009,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1087,13 +1087,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1171,6 +1186,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1560,7 +1578,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1589,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -1603,10 +1621,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1615,12 +1633,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1636,12 +1656,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1657,12 +1679,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1677,12 +1701,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1697,12 +1723,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1717,12 +1745,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1737,12 +1767,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1757,12 +1789,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1777,12 +1811,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1797,12 +1833,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1817,12 +1855,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1837,12 +1877,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1857,12 +1899,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1877,12 +1921,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D16" s="13"/>
       <c r="E16" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -1897,12 +1943,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1917,12 +1965,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1967,7 +2017,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1996,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -2010,10 +2060,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2022,12 +2072,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2043,12 +2095,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -2064,12 +2118,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2084,12 +2140,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2104,12 +2162,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2124,12 +2184,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2144,12 +2206,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2164,12 +2228,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2184,12 +2250,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2204,12 +2272,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2224,12 +2294,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2244,12 +2316,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2264,12 +2338,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2284,12 +2360,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D16" s="13"/>
       <c r="E16" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -2304,12 +2382,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2324,12 +2404,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2376,7 +2458,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2405,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -2419,10 +2501,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2431,12 +2513,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -2452,12 +2536,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2473,12 +2559,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2493,12 +2581,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2513,12 +2603,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2533,12 +2625,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2553,12 +2647,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2573,12 +2669,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2593,12 +2691,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2613,12 +2713,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2633,12 +2735,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2653,12 +2757,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2673,12 +2779,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2693,12 +2801,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2713,12 +2823,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2733,12 +2845,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2785,7 +2899,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2814,7 +2928,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -2828,10 +2942,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2839,15 +2953,17 @@
       <c r="A3" s="10">
         <v>2002</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6"/>
+      <c r="B3" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2862,15 +2978,17 @@
       <c r="A4" s="10">
         <v>2003</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="B4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -2885,15 +3003,17 @@
       <c r="A5" s="10">
         <v>2004</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="B5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2907,15 +3027,17 @@
       <c r="A6" s="10">
         <v>2005</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="B6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2929,15 +3051,17 @@
       <c r="A7" s="10">
         <v>2006</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="B7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2951,15 +3075,17 @@
       <c r="A8" s="10">
         <v>2007</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="B8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2973,15 +3099,17 @@
       <c r="A9" s="10">
         <v>2008</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="B9" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2995,15 +3123,17 @@
       <c r="A10" s="10">
         <v>2009</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="B10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3017,15 +3147,17 @@
       <c r="A11" s="10">
         <v>2010</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="B11" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3039,15 +3171,17 @@
       <c r="A12" s="10">
         <v>2011</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6"/>
+      <c r="B12" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3061,15 +3195,17 @@
       <c r="A13" s="10">
         <v>2012</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="B13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3083,15 +3219,17 @@
       <c r="A14" s="10">
         <v>2013</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="B14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3105,15 +3243,17 @@
       <c r="A15" s="10">
         <v>2014</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="B15" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3127,15 +3267,17 @@
       <c r="A16" s="10">
         <v>2015</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="6"/>
+      <c r="B16" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3149,15 +3291,17 @@
       <c r="A17" s="10">
         <v>2016</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="B17" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3171,15 +3315,17 @@
       <c r="A18" s="10">
         <v>2017</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="6"/>
+      <c r="B18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3226,7 +3372,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F18"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3255,7 +3401,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -3269,10 +3415,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3280,15 +3426,17 @@
       <c r="A3" s="10">
         <v>2002</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6"/>
+      <c r="B3" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3303,15 +3451,17 @@
       <c r="A4" s="10">
         <v>2003</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="B4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -3326,15 +3476,17 @@
       <c r="A5" s="10">
         <v>2004</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="B5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3348,15 +3500,17 @@
       <c r="A6" s="10">
         <v>2005</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="B6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3370,15 +3524,17 @@
       <c r="A7" s="10">
         <v>2006</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="B7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -3392,15 +3548,17 @@
       <c r="A8" s="10">
         <v>2007</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="B8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3414,15 +3572,17 @@
       <c r="A9" s="10">
         <v>2008</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="B9" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3436,15 +3596,17 @@
       <c r="A10" s="10">
         <v>2009</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="B10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3458,15 +3620,17 @@
       <c r="A11" s="10">
         <v>2010</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="B11" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3480,15 +3644,17 @@
       <c r="A12" s="10">
         <v>2011</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6"/>
+      <c r="B12" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3502,15 +3668,17 @@
       <c r="A13" s="10">
         <v>2012</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="B13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3524,15 +3692,17 @@
       <c r="A14" s="10">
         <v>2013</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="B14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3546,15 +3716,17 @@
       <c r="A15" s="10">
         <v>2014</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="B15" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3568,15 +3740,17 @@
       <c r="A16" s="10">
         <v>2015</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="6"/>
+      <c r="B16" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3590,15 +3764,17 @@
       <c r="A17" s="10">
         <v>2016</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="B17" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3612,15 +3788,17 @@
       <c r="A18" s="10">
         <v>2017</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="6"/>
+      <c r="B18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3667,7 +3845,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F18"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3696,7 +3874,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -3710,10 +3888,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3721,15 +3899,17 @@
       <c r="A3" s="10">
         <v>2002</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6"/>
+      <c r="B3" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -3744,15 +3924,17 @@
       <c r="A4" s="10">
         <v>2003</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="B4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3767,15 +3949,17 @@
       <c r="A5" s="10">
         <v>2004</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="B5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3789,15 +3973,17 @@
       <c r="A6" s="10">
         <v>2005</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="B6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3811,15 +3997,17 @@
       <c r="A7" s="10">
         <v>2006</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="B7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3833,15 +4021,17 @@
       <c r="A8" s="10">
         <v>2007</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="B8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -3855,15 +4045,17 @@
       <c r="A9" s="10">
         <v>2008</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="B9" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3877,15 +4069,17 @@
       <c r="A10" s="10">
         <v>2009</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="B10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3899,15 +4093,17 @@
       <c r="A11" s="10">
         <v>2010</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="B11" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3921,15 +4117,17 @@
       <c r="A12" s="10">
         <v>2011</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6"/>
+      <c r="B12" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3943,15 +4141,17 @@
       <c r="A13" s="10">
         <v>2012</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="B13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3965,15 +4165,17 @@
       <c r="A14" s="10">
         <v>2013</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="B14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3987,15 +4189,17 @@
       <c r="A15" s="10">
         <v>2014</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="B15" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4009,15 +4213,17 @@
       <c r="A16" s="10">
         <v>2015</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="6"/>
+      <c r="B16" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4031,15 +4237,17 @@
       <c r="A17" s="10">
         <v>2016</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="B17" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4053,15 +4261,17 @@
       <c r="A18" s="10">
         <v>2017</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="6"/>
+      <c r="B18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4108,7 +4318,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F18"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4137,7 +4347,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -4151,10 +4361,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4162,15 +4372,17 @@
       <c r="A3" s="10">
         <v>2002</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6"/>
+      <c r="B3" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -4185,15 +4397,17 @@
       <c r="A4" s="10">
         <v>2003</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="B4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4209,15 +4423,17 @@
       <c r="A5" s="10">
         <v>2004</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="B5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4231,15 +4447,17 @@
       <c r="A6" s="10">
         <v>2005</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="B6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4253,15 +4471,17 @@
       <c r="A7" s="10">
         <v>2006</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="B7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4275,15 +4495,17 @@
       <c r="A8" s="10">
         <v>2007</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="B8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4297,15 +4519,17 @@
       <c r="A9" s="10">
         <v>2008</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="B9" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4319,15 +4543,17 @@
       <c r="A10" s="10">
         <v>2009</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="B10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4341,15 +4567,17 @@
       <c r="A11" s="10">
         <v>2010</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="B11" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4363,15 +4591,17 @@
       <c r="A12" s="10">
         <v>2011</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6"/>
+      <c r="B12" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4385,15 +4615,17 @@
       <c r="A13" s="10">
         <v>2012</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="B13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4407,15 +4639,17 @@
       <c r="A14" s="10">
         <v>2013</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="B14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4429,15 +4663,17 @@
       <c r="A15" s="10">
         <v>2014</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="B15" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4451,15 +4687,17 @@
       <c r="A16" s="10">
         <v>2015</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="6"/>
+      <c r="B16" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4473,15 +4711,17 @@
       <c r="A17" s="10">
         <v>2016</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="B17" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4495,15 +4735,17 @@
       <c r="A18" s="10">
         <v>2017</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="6"/>
+      <c r="B18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4546,11 +4788,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4579,7 +4821,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -4593,10 +4835,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4604,15 +4846,17 @@
       <c r="A3" s="10">
         <v>2002</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6"/>
+      <c r="B3" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -4627,15 +4871,17 @@
       <c r="A4" s="10">
         <v>2003</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="B4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4651,15 +4897,17 @@
       <c r="A5" s="10">
         <v>2004</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="B5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4673,15 +4921,17 @@
       <c r="A6" s="10">
         <v>2005</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="B6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4695,15 +4945,17 @@
       <c r="A7" s="10">
         <v>2006</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="B7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4717,15 +4969,17 @@
       <c r="A8" s="10">
         <v>2007</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="B8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4739,15 +4993,17 @@
       <c r="A9" s="10">
         <v>2008</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="B9" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4761,15 +5017,17 @@
       <c r="A10" s="10">
         <v>2009</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="B10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4783,15 +5041,17 @@
       <c r="A11" s="10">
         <v>2010</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="B11" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -4805,15 +5065,17 @@
       <c r="A12" s="10">
         <v>2011</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6"/>
+      <c r="B12" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4827,15 +5089,17 @@
       <c r="A13" s="10">
         <v>2012</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="B13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4849,15 +5113,17 @@
       <c r="A14" s="10">
         <v>2013</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="B14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4871,15 +5137,17 @@
       <c r="A15" s="10">
         <v>2014</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="B15" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4893,15 +5161,17 @@
       <c r="A16" s="10">
         <v>2015</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="6"/>
+      <c r="B16" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4915,15 +5185,17 @@
       <c r="A17" s="10">
         <v>2016</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="B17" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4937,15 +5209,17 @@
       <c r="A18" s="10">
         <v>2017</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="6"/>
+      <c r="B18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4988,11 +5262,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5004,13 +5278,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5018,10 +5292,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5029,10 +5303,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5040,10 +5314,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5051,10 +5325,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5062,10 +5336,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5073,10 +5347,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Ireland/#EURO#Ireland#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Ireland/#EURO#Ireland#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Ireland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Ireland\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6A6FC5-2ECC-49D9-ABF2-442B2E0D8A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,13 +33,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="1" shapeId="0">
+    <comment ref="E4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="1" shapeId="0">
+    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -107,13 +108,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="1" shapeId="0">
+    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -166,13 +167,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -188,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="1" shapeId="0">
+    <comment ref="E3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -220,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="1" shapeId="0">
+    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -241,12 +242,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -262,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -283,12 +284,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -304,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -325,12 +326,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -346,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -367,12 +368,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -388,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -409,12 +410,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -430,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -451,7 +452,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="163">
   <si>
     <t>-</t>
   </si>
@@ -907,12 +908,45 @@
   </si>
   <si>
     <t xml:space="preserve">Obv: Celtic harp </t>
+  </si>
+  <si>
+    <t>25.980</t>
+  </si>
+  <si>
+    <t>9.000</t>
+  </si>
+  <si>
+    <t>25.990</t>
+  </si>
+  <si>
+    <t>30.072.180</t>
+  </si>
+  <si>
+    <t>30.009.000</t>
+  </si>
+  <si>
+    <t>185.800</t>
+  </si>
+  <si>
+    <t>10.009.000</t>
+  </si>
+  <si>
+    <t>126.030</t>
+  </si>
+  <si>
+    <t>85.990</t>
+  </si>
+  <si>
+    <t>85.710</t>
+  </si>
+  <si>
+    <t>89.440</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1175,6 +1209,9 @@
     <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1187,16 +1224,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1205,6 +1383,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1294,16 +1480,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="19" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1571,38 +1757,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B18"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -1611,9 +1797,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1628,14 +1814,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D3" s="13"/>
@@ -1651,14 +1837,14 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D4" s="13"/>
@@ -1674,14 +1860,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D5" s="13"/>
@@ -1696,14 +1882,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D6" s="13"/>
@@ -1718,14 +1904,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="13"/>
@@ -1740,14 +1926,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="13"/>
@@ -1762,14 +1948,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D9" s="13"/>
@@ -1784,14 +1970,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D10" s="13"/>
@@ -1806,14 +1992,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="13"/>
@@ -1828,14 +2014,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="13"/>
@@ -1850,14 +2036,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D13" s="13"/>
@@ -1872,14 +2058,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D14" s="13"/>
@@ -1894,14 +2080,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D15" s="13"/>
@@ -1916,14 +2102,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D16" s="13"/>
@@ -1938,14 +2124,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D17" s="13"/>
@@ -1960,14 +2146,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D18" s="13"/>
@@ -1979,6 +2165,50 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" ref="G19:G20" si="1">IF(OR(AND(F19&gt;1,F19&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1989,8 +2219,38 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -2010,38 +2270,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17:B18"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -2050,9 +2310,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2067,14 +2327,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D3" s="13"/>
@@ -2085,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G18" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D4" s="13"/>
@@ -2113,14 +2373,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D5" s="13"/>
@@ -2135,14 +2395,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D6" s="13"/>
@@ -2157,14 +2417,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="13"/>
@@ -2179,14 +2439,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="13"/>
@@ -2201,14 +2461,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D9" s="13"/>
@@ -2223,14 +2483,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D10" s="13"/>
@@ -2245,14 +2505,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="13"/>
@@ -2267,14 +2527,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="13"/>
@@ -2289,14 +2549,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D13" s="13"/>
@@ -2311,14 +2571,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D14" s="13"/>
@@ -2333,14 +2593,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D15" s="13"/>
@@ -2355,14 +2615,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D16" s="13"/>
@@ -2377,14 +2637,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D17" s="13"/>
@@ -2399,14 +2659,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D18" s="13"/>
@@ -2417,6 +2677,50 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2428,11 +2732,41 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F18">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2451,38 +2785,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B18"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -2491,9 +2825,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2508,14 +2842,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D3" s="13"/>
@@ -2526,19 +2860,19 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G18" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D4" s="13"/>
@@ -2554,14 +2888,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D5" s="13"/>
@@ -2576,14 +2910,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D6" s="13"/>
@@ -2598,14 +2932,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="13"/>
@@ -2620,14 +2954,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="13"/>
@@ -2642,14 +2976,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D9" s="13"/>
@@ -2664,14 +2998,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D10" s="13"/>
@@ -2686,14 +3020,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="13"/>
@@ -2708,14 +3042,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="13"/>
@@ -2730,14 +3064,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D13" s="13"/>
@@ -2752,14 +3086,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D14" s="13"/>
@@ -2774,14 +3108,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D15" s="13"/>
@@ -2796,14 +3130,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D16" s="13"/>
@@ -2818,14 +3152,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D17" s="13"/>
@@ -2840,14 +3174,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D18" s="13"/>
@@ -2858,6 +3192,50 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2869,11 +3247,41 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F18">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2892,38 +3300,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B18"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -2932,9 +3340,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2949,14 +3357,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -2969,19 +3377,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G18" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -2999,14 +3407,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -3023,14 +3431,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3047,14 +3455,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3071,14 +3479,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -3095,14 +3503,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -3119,14 +3527,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -3143,14 +3551,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3167,14 +3575,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -3191,14 +3599,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3215,14 +3623,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -3239,14 +3647,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -3263,14 +3671,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -3287,14 +3695,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -3311,14 +3719,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -3331,6 +3739,54 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3342,11 +3798,41 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F18">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3365,38 +3851,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B18"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="A19:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -3405,9 +3891,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -3422,14 +3908,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3442,19 +3928,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G18" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3472,14 +3958,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -3496,14 +3982,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3520,14 +4006,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3544,14 +4030,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -3568,14 +4054,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -3592,14 +4078,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -3616,14 +4102,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3640,14 +4126,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -3664,14 +4150,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3688,14 +4174,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -3712,14 +4198,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -3736,14 +4222,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -3760,14 +4246,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -3784,14 +4270,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -3804,6 +4290,54 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3815,11 +4349,41 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F18">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3838,38 +4402,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B18"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="A19:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -3878,9 +4442,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -3895,14 +4459,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3915,19 +4479,19 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G18" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3945,14 +4509,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -3969,14 +4533,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3993,14 +4557,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -4017,14 +4581,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -4041,14 +4605,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -4065,14 +4629,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -4089,14 +4653,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -4113,14 +4677,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -4137,14 +4701,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -4161,14 +4725,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -4185,14 +4749,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -4209,14 +4773,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -4233,14 +4797,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -4257,14 +4821,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -4277,6 +4841,54 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4288,11 +4900,41 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F18">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4311,38 +4953,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B18"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="A19:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -4351,9 +4993,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -4368,14 +5010,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -4388,19 +5030,19 @@
         <v>2</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G18" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -4419,14 +5061,14 @@
       <c r="H4" s="15"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -4443,14 +5085,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -4467,14 +5109,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -4491,14 +5133,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -4515,14 +5157,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -4539,14 +5181,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -4563,14 +5205,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -4587,14 +5229,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -4611,14 +5253,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -4635,14 +5277,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -4659,14 +5301,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -4683,14 +5325,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -4707,14 +5349,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -4731,14 +5373,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -4751,6 +5393,54 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4762,11 +5452,41 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F18">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4785,38 +5505,38 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -4825,9 +5545,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -4842,14 +5562,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -4862,19 +5582,19 @@
         <v>2</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G18" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -4893,14 +5613,14 @@
       <c r="H4" s="15"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -4917,14 +5637,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -4941,14 +5661,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -4965,14 +5685,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -4989,14 +5709,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -5013,14 +5733,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -5037,14 +5757,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -5061,14 +5781,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -5085,14 +5805,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -5109,14 +5829,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -5133,14 +5853,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -5157,14 +5877,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -5181,14 +5901,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -5205,14 +5925,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -5225,6 +5945,54 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5236,11 +6004,41 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F18">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5259,7 +6057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5269,14 +6067,14 @@
       <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
@@ -5287,7 +6085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -5298,7 +6096,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -5309,7 +6107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -5320,7 +6118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -5331,7 +6129,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -5342,7 +6140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -5355,12 +6153,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Ireland/#EURO#Ireland#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Ireland/#EURO#Ireland#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Ireland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Ireland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6A6FC5-2ECC-49D9-ABF2-442B2E0D8A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBFE80F-D074-423D-BF11-C0D40C92A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="168">
   <si>
     <t>-</t>
   </si>
@@ -941,13 +950,28 @@
   </si>
   <si>
     <t>89.440</t>
+  </si>
+  <si>
+    <t>8.000</t>
+  </si>
+  <si>
+    <t>6.000</t>
+  </si>
+  <si>
+    <t>78.000</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>60.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1003,6 +1027,10 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1230,63 +1258,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1456,6 +1428,126 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1487,9 +1579,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="19" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="12" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1758,27 +1850,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19:G20"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
@@ -1797,7 +1889,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
@@ -1814,7 +1906,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -1837,7 +1929,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -1860,7 +1952,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -1882,7 +1974,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -1904,7 +1996,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -1926,7 +2018,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -1948,7 +2040,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -1970,7 +2062,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -1992,7 +2084,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -2014,7 +2106,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -2036,7 +2128,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -2058,7 +2150,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -2080,7 +2172,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -2102,7 +2194,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -2124,7 +2216,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -2146,7 +2238,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -2168,7 +2260,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -2190,7 +2282,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -2209,6 +2301,94 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21:G24" si="2">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2218,8 +2398,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2234,7 +2415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2248,8 +2429,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F20:F24">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2271,27 +2452,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20:F20"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
@@ -2310,7 +2491,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
@@ -2327,7 +2508,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -2350,7 +2531,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -2373,7 +2554,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -2395,7 +2576,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -2417,7 +2598,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -2439,7 +2620,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -2461,7 +2642,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -2483,7 +2664,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -2505,7 +2686,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -2527,7 +2708,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -2549,7 +2730,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -2571,7 +2752,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -2593,7 +2774,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -2615,7 +2796,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -2637,7 +2818,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -2659,7 +2840,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -2681,7 +2862,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -2703,7 +2884,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -2722,6 +2903,94 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21:G24" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2731,8 +3000,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2749,7 +3019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2763,8 +3033,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F20:F24">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2786,27 +3056,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19:G20"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
@@ -2825,7 +3095,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
@@ -2842,7 +3112,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -2865,7 +3135,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -2888,7 +3158,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -2910,7 +3180,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -2932,7 +3202,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -2954,7 +3224,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -2976,7 +3246,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -2998,7 +3268,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -3020,7 +3290,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -3042,7 +3312,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -3064,7 +3334,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -3086,7 +3356,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -3108,7 +3378,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -3130,7 +3400,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -3152,7 +3422,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -3174,7 +3444,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -3196,7 +3466,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -3218,7 +3488,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -3237,6 +3507,94 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3247,12 +3605,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3264,10 +3622,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3279,8 +3637,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F24">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -3301,27 +3689,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
@@ -3340,7 +3728,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
@@ -3357,7 +3745,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -3382,7 +3770,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -3407,7 +3795,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -3431,7 +3819,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -3455,7 +3843,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -3479,7 +3867,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -3503,7 +3891,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -3527,7 +3915,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -3551,7 +3939,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -3575,7 +3963,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -3599,7 +3987,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -3623,7 +4011,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -3647,7 +4035,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -3671,7 +4059,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -3695,7 +4083,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -3719,7 +4107,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -3743,7 +4131,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -3767,7 +4155,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -3788,6 +4176,102 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3797,12 +4281,43 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F18">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3814,24 +4329,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+  <conditionalFormatting sqref="F21:F24">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -3852,27 +4352,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="A19:G20"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
@@ -3891,7 +4391,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
@@ -3908,7 +4408,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -3933,7 +4433,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -3958,7 +4458,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -3982,7 +4482,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -4006,7 +4506,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -4030,7 +4530,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -4054,7 +4554,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -4078,7 +4578,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -4102,7 +4602,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -4126,7 +4626,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -4150,7 +4650,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -4174,7 +4674,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -4198,7 +4698,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -4222,7 +4722,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -4246,7 +4746,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -4270,7 +4770,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -4294,7 +4794,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -4318,7 +4818,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -4339,6 +4839,102 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21:G24" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4348,8 +4944,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4366,7 +4963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4380,8 +4977,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F20:F24">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4403,27 +5000,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="A19:G20"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
@@ -4442,7 +5039,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
@@ -4459,7 +5056,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -4484,7 +5081,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -4509,7 +5106,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -4533,7 +5130,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -4557,7 +5154,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -4581,7 +5178,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -4605,7 +5202,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -4629,7 +5226,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -4653,7 +5250,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -4677,7 +5274,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -4701,7 +5298,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -4725,7 +5322,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -4749,7 +5346,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -4773,7 +5370,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -4797,7 +5394,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -4821,7 +5418,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -4845,7 +5442,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -4869,7 +5466,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -4890,6 +5487,102 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21:G24" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4899,8 +5592,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4917,7 +5611,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4931,8 +5625,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F20:F24">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4954,27 +5648,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="A19:G20"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
@@ -4993,7 +5687,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
@@ -5010,7 +5704,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -5035,7 +5729,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -5061,7 +5755,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -5085,7 +5779,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -5109,7 +5803,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -5133,7 +5827,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -5157,7 +5851,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -5181,7 +5875,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -5205,7 +5899,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -5229,7 +5923,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -5253,7 +5947,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -5277,7 +5971,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -5301,7 +5995,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -5325,7 +6019,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -5349,7 +6043,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -5373,7 +6067,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -5397,7 +6091,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -5421,7 +6115,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -5442,6 +6136,102 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21:G24" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5452,11 +6242,71 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F18">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5468,9 +6318,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -5483,9 +6333,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -5506,27 +6356,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
@@ -5545,7 +6395,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
@@ -5562,7 +6412,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -5587,7 +6437,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -5613,7 +6463,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -5637,7 +6487,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -5661,7 +6511,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -5685,7 +6535,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -5709,7 +6559,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -5733,7 +6583,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -5757,7 +6607,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -5781,7 +6631,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -5805,7 +6655,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -5829,7 +6679,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -5853,7 +6703,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -5877,7 +6727,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -5901,7 +6751,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -5925,7 +6775,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -5949,7 +6799,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -5973,7 +6823,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -5994,6 +6844,102 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21:G24" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6003,8 +6949,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6021,7 +6968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6035,8 +6982,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F20:F24">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6067,14 +7014,14 @@
       <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
@@ -6085,7 +7032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -6096,7 +7043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -6107,7 +7054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -6118,7 +7065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -6129,7 +7076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -6140,7 +7087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>6</v>
       </c>

--- a/Collections/EURO/Ireland/#EURO#Ireland#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Ireland/#EURO#Ireland#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Ireland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBFE80F-D074-423D-BF11-C0D40C92A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374AEABB-77ED-4174-9FE0-6B61ED9356A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -469,9 +469,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -965,6 +962,9 @@
   </si>
   <si>
     <t>60.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1258,14 +1258,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="34">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1322,39 +1323,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1579,9 +1547,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="12" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1852,11 +1820,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1875,17 +1843,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -1893,16 +1861,16 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1911,14 +1879,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1934,14 +1902,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1957,14 +1925,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1979,14 +1947,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2001,14 +1969,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2023,14 +1991,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2045,14 +2013,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2067,14 +2035,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2089,14 +2057,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2111,14 +2079,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2133,14 +2101,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2155,14 +2123,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2177,14 +2145,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2199,14 +2167,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -2221,14 +2189,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2243,14 +2211,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2265,14 +2233,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2287,14 +2255,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -2309,14 +2277,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -2331,14 +2299,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -2353,14 +2321,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -2375,14 +2343,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -2400,7 +2368,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2415,7 +2383,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2430,7 +2398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F24">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2458,7 +2426,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21:E24"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2477,17 +2445,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -2495,16 +2463,16 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2513,14 +2481,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2536,14 +2504,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -2559,14 +2527,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2581,14 +2549,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2603,14 +2571,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2625,14 +2593,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2647,14 +2615,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2669,14 +2637,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2691,14 +2659,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2713,14 +2681,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2735,14 +2703,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2757,14 +2725,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2779,14 +2747,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2801,14 +2769,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -2823,14 +2791,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2845,14 +2813,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2867,14 +2835,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2889,14 +2857,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -2911,14 +2879,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -2933,14 +2901,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -2955,14 +2923,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -2977,14 +2945,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -3002,7 +2970,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3019,7 +2987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3034,7 +3002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F24">
-    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3062,7 +3030,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22:E24"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3081,17 +3049,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -3099,16 +3067,16 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3117,14 +3085,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -3140,14 +3108,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3163,14 +3131,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3185,14 +3153,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3207,14 +3175,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3229,14 +3197,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3251,14 +3219,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3273,14 +3241,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3295,14 +3263,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3317,14 +3285,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3339,14 +3307,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3361,14 +3329,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3383,14 +3351,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3405,14 +3373,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3427,14 +3395,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3449,14 +3417,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3471,14 +3439,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3493,14 +3461,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3515,14 +3483,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3537,14 +3505,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -3559,14 +3527,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -3581,14 +3549,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -3605,7 +3573,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3622,7 +3590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -3637,7 +3605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -3652,7 +3620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -3667,7 +3635,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F24">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3695,7 +3663,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3714,17 +3682,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -3732,16 +3700,16 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3750,16 +3718,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3775,16 +3743,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -3800,16 +3768,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3824,16 +3792,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3848,16 +3816,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3872,16 +3840,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3896,16 +3864,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3920,16 +3888,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3944,16 +3912,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3968,16 +3936,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3992,16 +3960,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4016,16 +3984,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4040,16 +4008,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4064,16 +4032,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4088,16 +4056,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4112,16 +4080,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4136,16 +4104,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4160,16 +4128,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -4184,16 +4152,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -4208,16 +4176,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -4232,16 +4200,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -4256,16 +4224,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -4283,7 +4251,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4300,7 +4268,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -4315,7 +4283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4330,7 +4298,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F24">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4358,7 +4326,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21:E24"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4377,17 +4345,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -4395,16 +4363,16 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4413,16 +4381,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4438,16 +4406,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -4463,16 +4431,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4487,16 +4455,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4511,16 +4479,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -4535,16 +4503,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4559,16 +4527,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4583,16 +4551,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4607,16 +4575,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4631,16 +4599,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4655,16 +4623,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4679,16 +4647,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4703,16 +4671,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4727,16 +4695,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4751,16 +4719,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4775,16 +4743,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4799,16 +4767,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4823,16 +4791,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -4847,16 +4815,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -4871,16 +4839,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -4895,16 +4863,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -4919,16 +4887,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -4946,7 +4914,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4963,7 +4931,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4978,7 +4946,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F24">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5006,7 +4974,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21:E24"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5025,17 +4993,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -5043,16 +5011,16 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -5061,16 +5029,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5086,16 +5054,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -5111,16 +5079,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -5135,16 +5103,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -5159,16 +5127,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5183,16 +5151,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5207,16 +5175,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -5231,16 +5199,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5255,16 +5223,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5279,16 +5247,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -5303,16 +5271,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -5327,16 +5295,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5351,16 +5319,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -5375,16 +5343,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5399,16 +5367,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -5423,16 +5391,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5447,16 +5415,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5471,16 +5439,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -5495,16 +5463,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -5519,16 +5487,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -5543,16 +5511,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -5567,16 +5535,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -5594,7 +5562,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5611,7 +5579,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5626,7 +5594,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F24">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5654,7 +5622,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5673,17 +5641,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -5691,16 +5659,16 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -5709,16 +5677,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -5734,16 +5702,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -5760,16 +5728,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -5784,16 +5752,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -5808,16 +5776,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5832,16 +5800,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -5856,16 +5824,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -5880,16 +5848,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5904,16 +5872,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5928,16 +5896,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -5952,16 +5920,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -5976,16 +5944,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -6000,16 +5968,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -6024,16 +5992,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -6048,16 +6016,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -6072,16 +6040,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -6096,16 +6064,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -6120,16 +6088,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -6144,16 +6112,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -6168,16 +6136,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -6192,16 +6160,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -6216,16 +6184,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -6242,7 +6210,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6259,7 +6227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -6274,7 +6242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6289,7 +6257,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6304,7 +6272,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6319,7 +6287,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6334,7 +6302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6358,11 +6326,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21:E24"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6381,17 +6349,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -6399,16 +6367,16 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -6417,16 +6385,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -6442,16 +6410,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -6468,16 +6436,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -6492,16 +6460,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -6516,16 +6484,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -6540,16 +6508,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -6564,16 +6532,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -6588,16 +6556,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -6612,16 +6580,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -6636,16 +6604,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -6660,16 +6628,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -6684,16 +6652,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -6708,16 +6676,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -6732,16 +6700,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -6756,16 +6724,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -6780,16 +6748,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -6804,16 +6772,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -6828,16 +6796,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -6852,16 +6820,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -6876,16 +6844,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -6900,16 +6868,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -6924,16 +6892,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -6951,7 +6919,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6968,7 +6936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6983,7 +6951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F24">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7023,13 +6991,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7037,10 +7005,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7048,10 +7016,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7059,10 +7027,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7070,10 +7038,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7081,10 +7049,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7092,10 +7060,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Ireland/#EURO#Ireland#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Ireland/#EURO#Ireland#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Ireland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374AEABB-77ED-4174-9FE0-6B61ED9356A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC61C67A-9779-4D3B-8FA4-355FEA299E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -4974,7 +4974,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6330,7 +6330,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Ireland/#EURO#Ireland#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Ireland/#EURO#Ireland#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Ireland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC61C67A-9779-4D3B-8FA4-355FEA299E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED2D4E8-5078-401B-9CE8-088543818544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -461,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="169">
   <si>
     <t>-</t>
   </si>
@@ -475,12 +485,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -965,6 +969,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
   </si>
 </sst>
 </file>
@@ -1031,6 +1044,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1170,7 +1185,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1239,6 +1254,9 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1824,53 +1842,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1879,14 +1896,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1902,14 +1919,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1925,14 +1942,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1947,14 +1964,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1969,14 +1986,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1991,14 +2008,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2013,14 +2030,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2035,14 +2052,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2057,14 +2074,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2079,14 +2096,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2101,14 +2118,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2123,14 +2140,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2145,14 +2162,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2167,14 +2184,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -2189,14 +2206,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2211,14 +2228,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2233,14 +2250,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2255,14 +2272,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -2277,14 +2294,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -2299,14 +2316,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -2321,14 +2338,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -2343,14 +2360,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -2361,9 +2378,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2426,53 +2443,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2481,14 +2497,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2504,14 +2520,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -2527,14 +2543,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2549,14 +2565,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2571,14 +2587,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2593,14 +2609,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2615,14 +2631,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2637,14 +2653,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2659,14 +2675,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2681,14 +2697,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2703,14 +2719,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2725,14 +2741,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2747,14 +2763,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2769,14 +2785,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -2791,14 +2807,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2813,14 +2829,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2835,14 +2851,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2857,14 +2873,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -2879,14 +2895,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -2901,14 +2917,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -2923,14 +2939,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -2945,14 +2961,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -2963,9 +2979,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -3030,53 +3046,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3085,14 +3100,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -3108,14 +3123,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3131,14 +3146,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3153,14 +3168,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3175,14 +3190,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3197,14 +3212,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3219,14 +3234,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3241,14 +3256,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3263,14 +3278,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3285,14 +3300,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3307,14 +3322,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3329,14 +3344,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3351,14 +3366,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3373,14 +3388,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3395,14 +3410,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3417,14 +3432,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3439,14 +3454,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3461,14 +3476,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3483,14 +3498,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3505,14 +3520,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -3527,14 +3542,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -3549,14 +3564,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -3567,9 +3582,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F18">
@@ -3663,53 +3678,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3718,16 +3732,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3743,16 +3757,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -3768,16 +3782,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3792,16 +3806,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3816,16 +3830,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3840,16 +3854,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3864,16 +3878,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3888,16 +3902,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3912,16 +3926,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3936,16 +3950,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3960,16 +3974,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3984,16 +3998,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4008,16 +4022,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4032,16 +4046,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4056,16 +4070,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4080,16 +4094,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4104,16 +4118,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4128,16 +4142,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -4152,16 +4166,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -4176,16 +4190,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -4200,16 +4214,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -4224,16 +4238,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -4244,9 +4258,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4326,53 +4340,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4381,16 +4394,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4406,16 +4419,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -4431,16 +4444,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4455,16 +4468,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4479,16 +4492,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -4503,16 +4516,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4527,16 +4540,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4551,16 +4564,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4575,16 +4588,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4599,16 +4612,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4623,16 +4636,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4647,16 +4660,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4671,16 +4684,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4695,16 +4708,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4719,16 +4732,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4743,16 +4756,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4767,16 +4780,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4791,16 +4804,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -4815,16 +4828,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -4839,16 +4852,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -4863,16 +4876,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -4887,16 +4900,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -4907,9 +4920,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4974,53 +4987,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -5029,16 +5041,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5054,16 +5066,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -5079,16 +5091,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -5103,16 +5115,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -5127,16 +5139,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5151,16 +5163,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5175,16 +5187,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -5199,16 +5211,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5223,16 +5235,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5247,16 +5259,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -5271,16 +5283,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -5295,16 +5307,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5319,16 +5331,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -5343,16 +5355,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5367,16 +5379,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -5391,16 +5403,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5415,16 +5427,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5439,16 +5451,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -5463,16 +5475,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -5487,16 +5499,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -5511,16 +5523,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -5535,16 +5547,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -5555,9 +5567,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5622,53 +5634,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -5677,16 +5688,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -5702,16 +5713,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -5728,16 +5739,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -5752,16 +5763,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -5776,16 +5787,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5800,16 +5811,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -5824,16 +5835,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -5848,16 +5859,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5872,16 +5883,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5896,16 +5907,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -5920,16 +5931,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -5944,16 +5955,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5968,16 +5979,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -5992,16 +6003,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -6016,16 +6027,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -6040,16 +6051,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -6064,16 +6075,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -6088,16 +6099,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -6112,16 +6123,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -6136,16 +6147,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -6160,16 +6171,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -6184,16 +6195,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -6204,9 +6215,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F18">
@@ -6330,53 +6341,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -6385,16 +6395,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -6410,16 +6420,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -6436,16 +6446,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -6460,16 +6470,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -6484,16 +6494,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -6508,16 +6518,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -6532,16 +6542,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -6556,16 +6566,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -6580,16 +6590,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -6604,16 +6614,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -6628,16 +6638,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -6652,16 +6662,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -6676,16 +6686,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -6700,16 +6710,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -6724,16 +6734,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -6748,16 +6758,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -6772,16 +6782,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -6796,16 +6806,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -6820,16 +6830,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -6844,16 +6854,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -6868,16 +6878,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -6892,16 +6902,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -6912,9 +6922,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -6991,13 +7001,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7005,10 +7015,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7016,10 +7026,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7027,10 +7037,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7038,10 +7048,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7049,10 +7059,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7060,10 +7070,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
